--- a/biology/Zoologie/Heptranchias/Heptranchias.xlsx
+++ b/biology/Zoologie/Heptranchias/Heptranchias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Requin perlon (Heptranchias perlo) fait partie de la famille des Hexanchidae.
@@ -512,14 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Requin perlon  est un requin primitif à sept fentes branchiales. Il peut atteindre 140 cm de long. Il est le seul représentant de son genre. Souvent confondu avec le requin griset, sa curiosité peut le rendre dangereux (voir documentaire De l’art d’être requin[1]). Son corps est fin. Il a une tête très pointue, avec une bouche ventrale étroite et de grands yeux. Ses dents sont en peigne. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Requin perlon  est un requin primitif à sept fentes branchiales. Il peut atteindre 140 cm de long. Il est le seul représentant de son genre. Souvent confondu avec le requin griset, sa curiosité peut le rendre dangereux (voir documentaire De l’art d’être requin). Son corps est fin. Il a une tête très pointue, avec une bouche ventrale étroite et de grands yeux. Ses dents sont en peigne. 
 Son dos est gris-brunâtre à olive et son ventre plus clair. Chez le juvénile, la nageoire dorsale a un apex noir, s'effaçant avec l'âge.
-Alimentation
-Cette espèce se nourrit de poissons et de calmars.
-Reproduction
-Ce requin est ovovivipare. Pour les deux sexes, il atteint sa maturité sexuelle entre 80 et 90 cm. La femelle donne naissance de 9 à 20 junéviles mesurant environ 25 cm.
 </t>
         </is>
       </c>
@@ -545,10 +555,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se nourrit de poissons et de calmars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heptranchias</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heptranchias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce requin est ovovivipare. Pour les deux sexes, il atteint sa maturité sexuelle entre 80 et 90 cm. La femelle donne naissance de 9 à 20 junéviles mesurant environ 25 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heptranchias</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heptranchias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Largement répandu, il vit de -25 à -1 000 mètres. On le trouve dans l'Atlantique, dans l'océan Pacifique ouest et dans l'océan indien.
 </t>
